--- a/tut05/output/0501CS26.xlsx
+++ b/tut05/output/0501CS26.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="C6" t="n">
-        <v>7.795454545454546</v>
+        <v>7.8</v>
       </c>
       <c r="D6" t="n">
-        <v>8.465116279069768</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.170212765957446</v>
+        <v>8.17</v>
       </c>
       <c r="F6" t="n">
-        <v>8.357142857142858</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.425000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="H6" t="n">
-        <v>9.048780487804878</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>8.949999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="C8" t="n">
-        <v>7.720430107526882</v>
+        <v>7.72</v>
       </c>
       <c r="D8" t="n">
-        <v>7.955882352941177</v>
+        <v>7.96</v>
       </c>
       <c r="E8" t="n">
-        <v>8.010928961748634</v>
+        <v>8.01</v>
       </c>
       <c r="F8" t="n">
-        <v>8.075555555555555</v>
+        <v>8.08</v>
       </c>
       <c r="G8" t="n">
-        <v>8.128301886792453</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.251633986928105</v>
+        <v>8.25</v>
       </c>
       <c r="I8" t="n">
-        <v>8.332369942196532</v>
+        <v>8.33</v>
       </c>
     </row>
   </sheetData>
